--- a/assets/excel/xlsx-example.xlsx
+++ b/assets/excel/xlsx-example.xlsx
@@ -8,60 +8,144 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="csv-example (1)" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Worksheet" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">email</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WA Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birthday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Province</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hobby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Occupation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Religion</t>
   </si>
   <si>
     <t xml:space="preserve">test</t>
   </si>
   <si>
-    <t xml:space="preserve">628111111111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test1@mail.com</t>
+    <t xml:space="preserve">+621111111111</t>
   </si>
   <si>
     <t xml:space="preserve">test2</t>
   </si>
   <si>
-    <t xml:space="preserve">628222222222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test2@mail.com</t>
+    <t xml:space="preserve">+622222222222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+623333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test3@mail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1988-12-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jawa Timur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kota Surabaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">single</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basket;panahan;jajanan;traveling;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nelayan;petani;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">islam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+624444444444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test4@mail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-06-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sydney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boxing;shooting;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surgeon;intel;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hindu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="4">
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -127,7 +211,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -148,20 +232,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M7" activeCellId="0" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="29.59"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -171,36 +256,139 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>12345</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
--- a/assets/excel/xlsx-example.xlsx
+++ b/assets/excel/xlsx-example.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -62,18 +62,6 @@
   </si>
   <si>
     <t xml:space="preserve">Religion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+621111111111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+622222222222</t>
   </si>
   <si>
     <t xml:space="preserve">test3</t>
@@ -232,13 +220,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M7" activeCellId="0" sqref="M7"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.66"/>
@@ -290,98 +278,84 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>15</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>17</v>
+        <v>26</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>12345</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>95</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>12345</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
